--- a/5_Resultate/JMeterAuswertung- Durchsatz, Latenz.xlsx
+++ b/5_Resultate/JMeterAuswertung- Durchsatz, Latenz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\dinf\dinf\doc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\DINF-BT-K\5_Resultate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13455" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13455" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram_SzenarioVergleich" sheetId="19" r:id="rId1"/>
@@ -518,7 +518,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[JMeterAuswertung.xlsx]Pivot_SzenarioInterneVergleiche!PivotTable2</c:name>
+    <c:name>[JMeterAuswertung- Durchsatz, Latenz.xlsx]Pivot_SzenarioInterneVergleiche!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1824,6 +1824,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="569296264"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1851,7 +1852,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -1942,7 +1943,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[JMeterAuswertung.xlsx]Pivot_Latenzzeit!PivotTable4</c:name>
+    <c:name>[JMeterAuswertung- Durchsatz, Latenz.xlsx]Pivot_Latenzzeit!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3351,7 +3352,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[JMeterAuswertung.xlsx]Pivot-VglDurchSzen!PivotTable2</c:name>
+    <c:name>[JMeterAuswertung- Durchsatz, Latenz.xlsx]Pivot-VglDurchSzen!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5807,7 +5808,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="279" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5845,7 +5846,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6165645" cy="3779274"/>
+    <xdr:ext cx="6168081" cy="3779108"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -12809,7 +12810,7 @@
       <c r="AD99" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X1 Z1 AB1 AD1 AD50:AD1048576 AB50:AB1048576 Z50:Z1048576 X50:X1048576">
+  <conditionalFormatting sqref="Z1 X1 AB1 AD1 AD50:AD1048576 AB50:AB1048576 Z50:Z1048576 X50:X1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12833,7 +12834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1 AB1 AD1 AD50:AD1048576 AB50:AB1048576 Z50:Z1048576">
+  <conditionalFormatting sqref="AB1 Z1 AD1 AD50:AD1048576 AB50:AB1048576 Z50:Z1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15708,7 +15709,7 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
